--- a/Data/E4.xlsx
+++ b/Data/E4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -826,7 +826,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1703,9 +1703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3183,7 +3181,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Data/E4.xlsx
+++ b/Data/E4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="GeneratorsMaps" sheetId="12" r:id="rId7"/>
     <sheet name="HourlyVariation" sheetId="22" r:id="rId8"/>
     <sheet name="Scalars" sheetId="23" r:id="rId9"/>
+    <sheet name="Regulation" sheetId="24" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="150">
   <si>
     <t>Coal</t>
   </si>
@@ -470,6 +471,18 @@
   </si>
   <si>
     <t>c_H2g/g</t>
+  </si>
+  <si>
+    <t>CO2Cap/g</t>
+  </si>
+  <si>
+    <t>CO2Cap/CO2Cap</t>
+  </si>
+  <si>
+    <t>RESCap/g</t>
+  </si>
+  <si>
+    <t>RESCap/RESCap</t>
   </si>
 </sst>
 </file>
@@ -533,7 +546,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -541,6 +554,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1172,6 +1186,63 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
@@ -1295,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/E4.xlsx
+++ b/Data/E4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Data/E4.xlsx
+++ b/Data/E4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Scalars" sheetId="23" r:id="rId9"/>
     <sheet name="Regulation" sheetId="24" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="148">
   <si>
     <t>Coal</t>
   </si>
@@ -140,9 +143,6 @@
     <t>09b Wood Pellets, Medium</t>
   </si>
   <si>
-    <t>InvestCost/tech</t>
-  </si>
-  <si>
     <t>BP_Coal</t>
   </si>
   <si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>BP_BioMass</t>
-  </si>
-  <si>
-    <t>InvestCost/InvestCost</t>
   </si>
   <si>
     <t>InvestCost</t>
@@ -572,6 +569,128 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Log"/>
+      <sheetName val="TechRaw_Storage_H"/>
+      <sheetName val="TechRaw_Storage_E"/>
+      <sheetName val="TechRaw_ENS_E"/>
+      <sheetName val="TechRaw_ENS_H"/>
+      <sheetName val="TechRaw_IEA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2">
+            <v>31000</v>
+          </cell>
+          <cell r="S2">
+            <v>105934.90774208044</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>29300</v>
+          </cell>
+          <cell r="S3">
+            <v>72481.778981423457</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>66000</v>
+          </cell>
+          <cell r="S4">
+            <v>132608.72059620876</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>14000</v>
+          </cell>
+          <cell r="S5">
+            <v>59267.062530051473</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>11300</v>
+          </cell>
+          <cell r="S6">
+            <v>25415.875250388079</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2">
+            <v>32700</v>
+          </cell>
+          <cell r="S2">
+            <v>39843.531806200088</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>2000</v>
+          </cell>
+          <cell r="S3">
+            <v>47740.220795943176</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>1950</v>
+          </cell>
+          <cell r="S4">
+            <v>3345.3128760656982</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>60.808500000000002</v>
+          </cell>
+          <cell r="S5">
+            <v>15140.084436921501</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="B2">
+            <v>88000</v>
+          </cell>
+          <cell r="O2">
+            <v>111510.42920218995</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>30000</v>
+          </cell>
+          <cell r="O3">
+            <v>55755.214601094973</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>10000</v>
+          </cell>
+          <cell r="O4">
+            <v>123833.15368993349</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -840,7 +959,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,47 +975,47 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
         <v>97</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
         <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -904,26 +1023,26 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -960,10 +1079,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -974,12 +1093,12 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -987,7 +1106,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -995,7 +1114,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -1003,7 +1122,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -1011,7 +1130,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -1019,7 +1138,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -1027,148 +1146,148 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1177,9 +1296,9 @@
     <hyperlink ref="C24" r:id="rId2" display="https://iea-etsap.org/E-TechDS/PDF/E01-coal-fired-power-GS-AD-gct_FINAL.pdf"/>
     <hyperlink ref="C25" r:id="rId3" display="https://iea-etsap.org/E-TechDS/PDF/E02-gas_fired_power-GS-AD-gct_FINAL.pdf"/>
     <hyperlink ref="C26" r:id="rId4" display="https://iea-etsap.org/E-TechDS/PDF/E03-Nuclear-Power-GS-AD-gct_FINAL.pdf"/>
-    <hyperlink ref="C27" r:id="rId5" display="https://iea-etsap.org/E-TechDS/PDF/E01-coal-fired-power-GS-AD-gct_FINAL.pdf"/>
+    <hyperlink ref="C29" r:id="rId5" display="https://iea-etsap.org/E-TechDS/PDF/E03-Nuclear-Power-GS-AD-gct_FINAL.pdf"/>
     <hyperlink ref="C28" r:id="rId6" display="https://iea-etsap.org/E-TechDS/PDF/E02-gas_fired_power-GS-AD-gct_FINAL.pdf"/>
-    <hyperlink ref="C29" r:id="rId7" display="https://iea-etsap.org/E-TechDS/PDF/E03-Nuclear-Power-GS-AD-gct_FINAL.pdf"/>
+    <hyperlink ref="C27" r:id="rId7" display="https://iea-etsap.org/E-TechDS/PDF/E01-coal-fired-power-GS-AD-gct_FINAL.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -1191,23 +1310,23 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" t="s">
         <v>147</v>
-      </c>
-      <c r="C1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1247,7 +1366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1262,25 +1383,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1294,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>9.4370000000000009E-2</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1317,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>5.7000000000000002E-2</v>
@@ -1334,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1342,16 +1463,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="4">
         <v>0.47</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1367,7 +1488,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,45 +1505,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1431,30 +1552,30 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>400</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>400</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1463,24 +1584,24 @@
         <v>0.3</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>400</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1489,18 +1610,18 @@
         <v>0.5</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1510,19 +1631,19 @@
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5">
         <f>1-SUM(J2:J4)</f>
-        <v>9.9999999999999978E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1531,18 +1652,18 @@
         <v>0.1</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1551,18 +1672,18 @@
         <v>0.3</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1571,18 +1692,18 @@
         <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1592,14 +1713,14 @@
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I9">
         <v>4</v>
       </c>
       <c r="J9">
         <f>1-SUM(J6:J8)</f>
-        <v>9.9999999999999978E-2</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -1622,27 +1743,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1650,13 +1771,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -1672,39 +1793,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1715,7 +1836,7 @@
         <v>22</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1744,7 +1865,7 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -1772,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,14 +1911,12 @@
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1808,16 +1927,16 @@
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -1832,21 +1951,15 @@
         <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1856,47 +1969,40 @@
         <v>2.0408163265306123</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>0.01</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I2">
         <v>2.9</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2">
-        <f>31000/(3.6*1000)</f>
-        <v>8.6111111111111107</v>
+        <f>([1]TechRaw_ENS_E!$S$2+[1]TechRaw_ENS_E!$B$2)/(3.6*1000)</f>
+        <v>38.037474372800126</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2">
-        <f>1.9/3.6</f>
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="N2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2">
+        <v>41</v>
+      </c>
+      <c r="M2">
         <v>0.84</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1906,47 +2012,40 @@
         <v>1.9607843137254901</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>0.01</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3">
         <v>4.4000000000000004</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2">
-        <f>29300/(3.6*1000)</f>
-        <v>8.1388888888888893</v>
+        <f>([1]TechRaw_ENS_E!$S$3+[1]TechRaw_ENS_E!$B$3)/(3.6*1000)</f>
+        <v>28.272716383728739</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="2">
-        <f>1.3/3.6</f>
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="N3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3">
+        <v>42</v>
+      </c>
+      <c r="M3">
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1956,47 +2055,40 @@
         <v>3.2258064516129035</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>0.01</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>0.01</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4">
         <v>0.56999999999999995</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2">
-        <f>124000/(3.6*1000)</f>
-        <v>34.444444444444443</v>
+        <f>([1]TechRaw_ENS_E!$S$4+[1]TechRaw_ENS_E!$B$4)/(3.6*1000)</f>
+        <v>55.169089054502436</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="2">
-        <f>3.01/3.6</f>
-        <v>0.83611111111111103</v>
-      </c>
-      <c r="N4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4">
+        <v>43</v>
+      </c>
+      <c r="M4">
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -2006,47 +2098,40 @@
         <v>2.0408163265306123</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>0.01</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>0.01</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I5">
         <v>2.9</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2">
-        <f>31000/(3.6*1000)</f>
-        <v>8.6111111111111107</v>
+        <f>([1]TechRaw_ENS_E!$S$2+[1]TechRaw_ENS_E!$B$2)/(3.6*1000)</f>
+        <v>38.037474372800126</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="2">
-        <f>2000*1000/(3.6*1000000)</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5">
+        <v>44</v>
+      </c>
+      <c r="M5">
         <v>0.84</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2056,47 +2141,40 @@
         <v>1.9607843137254901</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>0.01</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6">
         <v>4.4000000000000004</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2">
-        <f>29300/(3.6*1000)</f>
-        <v>8.1388888888888893</v>
+        <f>([1]TechRaw_ENS_E!$S$3+[1]TechRaw_ENS_E!$B$3)/(3.6*1000)</f>
+        <v>28.272716383728739</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6" s="2">
-        <f>1000*1000/(3.6*1000000)</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="N6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6">
+        <v>45</v>
+      </c>
+      <c r="M6">
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -2106,47 +2184,40 @@
         <v>3.2258064516129035</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>0.01</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7">
         <v>0.56999999999999995</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7" s="2">
-        <f>124000/(3.6*1000)</f>
-        <v>34.444444444444443</v>
+        <f>([1]TechRaw_ENS_E!$S$4+[1]TechRaw_ENS_E!$B$4)/(3.6*1000)</f>
+        <v>55.169089054502436</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="2">
-        <f>2500*1000/(3.6*1000000)</f>
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="N7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7">
+        <v>46</v>
+      </c>
+      <c r="M7">
         <v>0.46</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -2156,48 +2227,41 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>0.01</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2">
-        <f>88*1000/(3.6*1000)</f>
-        <v>24.444444444444443</v>
+        <f>([1]TechRaw_IEA!$O$2+[1]TechRaw_IEA!$B$2)/(3.6*1000)</f>
+        <v>55.419563667274986</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="2">
-        <f>2.12/3.6</f>
-        <v>0.58888888888888891</v>
-      </c>
-      <c r="N8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8">
+        <v>75</v>
+      </c>
+      <c r="M8">
         <f>-1/3.5</f>
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2207,86 +2271,72 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G9">
-        <v>50</v>
+        <v>0.01</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K9" s="2">
-        <f>30*1000/(3.6*1000)</f>
-        <v>8.3333333333333339</v>
+        <f>([1]TechRaw_IEA!$O$3+[1]TechRaw_IEA!$B$3)/(3.6*1000)</f>
+        <v>23.820892944748607</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="2">
-        <f>0.56/3.6</f>
-        <v>0.15555555555555556</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9">
+        <v>80</v>
+      </c>
+      <c r="M9">
         <f>-1/3.5</f>
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <f>1/0.5</f>
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="2">
+        <f>([1]TechRaw_IEA!$O$4+[1]TechRaw_IEA!$B$4)/(3.6*1000)</f>
+        <v>37.17587602498152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>53</v>
-      </c>
-      <c r="K10" s="2">
-        <f>10*1000/(3.6*1000)</f>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="L10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="2">
-        <f>0.71/3.6</f>
-        <v>0.19722222222222222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -2296,35 +2346,28 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K11" s="2">
-        <f>88*1000/(3.6*1000)</f>
-        <v>24.444444444444443</v>
-      </c>
-      <c r="L11" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="2">
-        <f>0.06/3.6</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <f>([1]TechRaw_IEA!$O$2+[1]TechRaw_IEA!$B$2)/(3.6*1000)</f>
+        <v>55.419563667274986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2334,73 +2377,59 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K12" s="2">
-        <f>30*1000/(3.6*1000)</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="L12" t="s">
-        <v>85</v>
-      </c>
-      <c r="M12" s="2">
-        <f>0.31/3.6</f>
-        <v>8.611111111111111E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <f>([1]TechRaw_IEA!$O$3+[1]TechRaw_IEA!$B$3)/(3.6*1000)</f>
+        <v>23.820892944748607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <f>1/0.5</f>
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I13">
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K13" s="2">
-        <f>10*1000/(3.6*1000)</f>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="L13" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" s="2">
-        <f>0.86/3.6</f>
-        <v>0.23888888888888887</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <f>([1]TechRaw_IEA!$O$4+[1]TechRaw_IEA!$B$4)/(3.6*1000)</f>
+        <v>37.17587602498152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -2410,28 +2439,28 @@
         <v>0.99009900990099009</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>0.01</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K14" s="2">
-        <f>50000/(3.6*1000)</f>
-        <v>13.888888888888889</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <f>([1]TechRaw_ENS_E!$S$5+[1]TechRaw_ENS_E!$B$5)/(3.6*1000)</f>
+        <v>20.351961813903188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -2441,28 +2470,28 @@
         <v>0.95238095238095233</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>0.01</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="2">
-        <f>11300/(3.6*1000)</f>
-        <v>3.1388888888888888</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <f>([1]TechRaw_ENS_E!$S$6+[1]TechRaw_ENS_E!$B$6)/(3.6*1000)</f>
+        <v>10.198854236218912</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -2472,28 +2501,28 @@
         <v>0.99009900990099009</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K16" s="2">
-        <f>50000/(3.6*1000)</f>
-        <v>13.888888888888889</v>
+        <f>([1]TechRaw_ENS_E!$S$5+[1]TechRaw_ENS_E!$B$5)/(3.6*1000)</f>
+        <v>20.351961813903188</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -2503,143 +2532,143 @@
         <v>0.95238095238095233</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K17" s="2">
-        <f>11300/(3.6*1000)</f>
-        <v>3.1388888888888888</v>
+        <f>([1]TechRaw_ENS_E!$S$6+[1]TechRaw_ENS_E!$B$6)/(3.6*1000)</f>
+        <v>10.198854236218912</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I18">
         <v>1.96</v>
       </c>
       <c r="J18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K18" s="2">
-        <f>32700/(3.6*1000)</f>
-        <v>9.0833333333333339</v>
+        <f>([1]TechRaw_ENS_H!$B$2+[1]TechRaw_ENS_H!$S$2)/(3.6*1000)</f>
+        <v>20.150981057277804</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I19">
         <v>1.1000000000000001</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K19" s="2">
-        <f>1950/(3.6*1000)</f>
-        <v>0.54166666666666663</v>
+        <f>([1]TechRaw_ENS_H!$B$4+[1]TechRaw_ENS_H!$S$4)/(3.6*1000)</f>
+        <v>1.4709202433515829</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I20">
         <v>0.21</v>
       </c>
       <c r="J20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K20" s="2">
-        <f>60.8/(3.6*1000)</f>
-        <v>1.6888888888888887E-2</v>
+        <f>([1]TechRaw_ENS_H!$B$5+[1]TechRaw_ENS_H!$S$5)/(3.6*1000)</f>
+        <v>4.2224702602559727</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I21">
         <v>1.69</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K21" s="2">
-        <f>2000/(3.6*1000)</f>
-        <v>0.55555555555555558</v>
+        <f>([1]TechRaw_ENS_H!$B$3+[1]TechRaw_ENS_H!$S$3)/(3.6*1000)</f>
+        <v>13.816727998873105</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I22">
         <v>1.96</v>
       </c>
       <c r="J22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K22" s="2">
-        <f>32700/(3.6*1000)</f>
-        <v>9.0833333333333339</v>
+        <f>([1]TechRaw_ENS_H!$B$2+[1]TechRaw_ENS_H!$S$2)/(3.6*1000)</f>
+        <v>20.150981057277804</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I23">
         <v>1.1000000000000001</v>
       </c>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K23" s="2">
-        <f>1950/(3.6*1000)</f>
-        <v>0.54166666666666663</v>
+        <f>([1]TechRaw_ENS_H!$B$4+[1]TechRaw_ENS_H!$S$4)/(3.6*1000)</f>
+        <v>1.4709202433515829</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I24">
         <v>0.21</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K24" s="2">
-        <f>60.8/(3.6*1000)</f>
-        <v>1.6888888888888887E-2</v>
+        <f>([1]TechRaw_ENS_H!$B$5+[1]TechRaw_ENS_H!$S$5)/(3.6*1000)</f>
+        <v>4.2224702602559727</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I25">
         <v>1.69</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K25" s="2">
-        <f>2000/(3.6*1000)</f>
-        <v>0.55555555555555558</v>
+        <f>([1]TechRaw_ENS_H!$B$3+[1]TechRaw_ENS_H!$S$3)/(3.6*1000)</f>
+        <v>13.816727998873105</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +2682,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,339 +2716,339 @@
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -3027,19 +3056,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
@@ -3047,19 +3076,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -3067,19 +3096,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -3087,19 +3116,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
@@ -3107,19 +3136,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
         <v>21</v>
@@ -3127,19 +3156,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -3147,19 +3176,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -3167,19 +3196,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3187,19 +3216,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
@@ -3207,19 +3236,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
@@ -3227,19 +3256,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
@@ -3255,35 +3284,35 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3294,16 +3323,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0.15</v>
@@ -3320,16 +3349,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D3">
         <v>0.3</v>
       </c>
       <c r="E3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G3">
         <v>0.25</v>
@@ -3346,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
         <v>0.4</v>
@@ -3355,7 +3384,7 @@
         <v>0.6</v>
       </c>
       <c r="F4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G4">
         <v>0.25</v>
@@ -3372,16 +3401,16 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D5">
         <v>0.05</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G5">
         <v>0.15</v>
@@ -3400,7 +3429,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,23 +3439,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>0.05</v>

--- a/Data/E4.xlsx
+++ b/Data/E4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="HourlyVariation" sheetId="22" r:id="rId8"/>
     <sheet name="Scalars" sheetId="23" r:id="rId9"/>
     <sheet name="Regulation" sheetId="24" r:id="rId10"/>
+    <sheet name="UpdateCaps" sheetId="25" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="148">
   <si>
     <t>Coal</t>
   </si>
@@ -1310,7 +1311,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:D3"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,6 +1356,217 @@
       </c>
       <c r="D3">
         <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1487,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3284,7 +3496,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/E4.xlsx
+++ b/Data/E4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -1699,7 +1699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -2107,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/E4.xlsx
+++ b/Data/E4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxj477\Documents\GitHub\EnergyEconomicsE2022\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xnh825\Documents\GitHub\EnergyEconomicsE2022\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="TransmissionLines" sheetId="20" r:id="rId5"/>
     <sheet name="GeneratorsVariables" sheetId="16" r:id="rId6"/>
     <sheet name="GeneratorsMaps" sheetId="12" r:id="rId7"/>
-    <sheet name="HourlyVariation" sheetId="22" r:id="rId8"/>
-    <sheet name="Scalars" sheetId="23" r:id="rId9"/>
+    <sheet name="Scalars" sheetId="23" r:id="rId8"/>
+    <sheet name="HourlyVariation" sheetId="22" r:id="rId9"/>
     <sheet name="Regulation" sheetId="24" r:id="rId10"/>
     <sheet name="UpdateCaps" sheetId="25" r:id="rId11"/>
   </sheets>
@@ -555,8 +555,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -695,9 +695,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -735,7 +735,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -807,7 +807,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1367,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1700,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,7 +1945,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,7 +2006,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C1" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2894,7 +2894,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3493,6 +3493,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3634,46 +3676,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3">
-        <v>0.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/E4.xlsx
+++ b/Data/E4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -963,18 +963,18 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -982,7 +982,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -990,7 +990,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -998,7 +998,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -1314,9 +1314,9 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1371,15 +1371,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -1582,18 +1582,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.3046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1703,19 +1703,19 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.84375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>101</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>101</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>102</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>102</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>102</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>102</v>
       </c>
@@ -1948,12 +1948,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -2009,9 +2009,9 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2107,28 +2107,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>37.17587602498152</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>55.419563667274986</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>23.820892944748607</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>37.17587602498152</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>20.351961813903188</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>10.198854236218912</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>20.351961813903188</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>10.198854236218912</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H18" t="s">
         <v>69</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>20.150981057277804</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H19" t="s">
         <v>71</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>1.4709202433515829</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H20" t="s">
         <v>73</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>4.2224702602559727</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H21" t="s">
         <v>75</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>13.816727998873105</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H22" t="s">
         <v>77</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>20.150981057277804</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H23" t="s">
         <v>78</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>1.4709202433515829</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H24" t="s">
         <v>79</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>4.2224702602559727</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H25" t="s">
         <v>80</v>
       </c>
@@ -2893,22 +2893,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3828125" customWidth="1"/>
+    <col min="7" max="7" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -3499,9 +3499,9 @@
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3644,12 +3644,12 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>128</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>119</v>
       </c>
